--- a/01_alluminio_frattale/grafici/01_alluminio_frattale_raw.xlsx
+++ b/01_alluminio_frattale/grafici/01_alluminio_frattale_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9aa7d395ec58982d/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="329" documentId="8_{B3AB544F-F4F5-47EB-BED9-28A805E33710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5C215AF-CB3A-4035-9A0C-32758F31F475}"/>
+  <xr:revisionPtr revIDLastSave="352" documentId="8_{B3AB544F-F4F5-47EB-BED9-28A805E33710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5CCD274-E889-48EE-9F57-B97520AE2758}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{6F23CBE7-2062-4926-9ABF-02CDC9F0CDBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6F23CBE7-2062-4926-9ABF-02CDC9F0CDBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Part I" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Square</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Mean Mass</t>
   </si>
   <si>
-    <t>Error</t>
-  </si>
-  <si>
     <t>Sphere</t>
   </si>
   <si>
@@ -166,14 +163,21 @@
   </si>
   <si>
     <t>Length error</t>
+  </si>
+  <si>
+    <t>Error Length</t>
+  </si>
+  <si>
+    <t>Error Mass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -264,19 +268,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1204,15 +1208,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1238,6 +1242,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1559,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC81585-ECBD-463A-AE73-BC0CB2AFD19F}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" activeCellId="1" sqref="H2:H11 M2:M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,9 +1576,10 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
     <col min="10" max="12" width="12.7109375" customWidth="1"/>
     <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="19.28515625" style="1" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="1"/>
   </cols>
@@ -1597,11 +1606,11 @@
       <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>30</v>
+      <c r="I1" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>22</v>
@@ -1612,8 +1621,11 @@
       <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="4" t="s">
         <v>29</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1642,9 +1654,9 @@
         <f>AVERAGE(B2:G2)</f>
         <v>29.016666666666666</v>
       </c>
-      <c r="I2">
-        <f>_xlfn.STDEV.S(B2:G2)/SQRT(6)</f>
-        <v>1.6666666666666906E-2</v>
+      <c r="I2" s="2">
+        <f>_xlfn.STDEV.S(B2:G2)</f>
+        <v>4.0824829046386887E-2</v>
       </c>
       <c r="J2" s="6">
         <v>2.8</v>
@@ -1658,6 +1670,10 @@
       <c r="M2" s="3">
         <f>AVERAGE(J2:L2)</f>
         <v>2.7966666666666669</v>
+      </c>
+      <c r="N2" s="2">
+        <f>_xlfn.STDEV.S(J2:L2)</f>
+        <v>5.7735026918961348E-3</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>20</v>
@@ -1692,9 +1708,9 @@
         <f t="shared" ref="H3:H12" si="0">AVERAGE(B3:G3)</f>
         <v>26.016666666666666</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I12" si="1">_xlfn.STDEV.S(B3:G3)/SQRT(6)</f>
-        <v>3.07318148576434E-2</v>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I12" si="1">_xlfn.STDEV.S(B3:G3)</f>
+        <v>7.527726527090918E-2</v>
       </c>
       <c r="J3" s="6">
         <v>2.2799999999999998</v>
@@ -1708,6 +1724,10 @@
       <c r="M3" s="3">
         <f t="shared" ref="M3:M11" si="2">AVERAGE(J3:L3)</f>
         <v>2.2799999999999998</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N11" si="3">_xlfn.STDEV.S(J3:L3)</f>
+        <v>0</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>21</v>
@@ -1742,8 +1762,8 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
+      <c r="I4" s="2">
+        <f>_xlfn.STDEV.S(B4:G4)</f>
         <v>0</v>
       </c>
       <c r="J4" s="6">
@@ -1758,6 +1778,10 @@
       <c r="M4" s="3">
         <f t="shared" si="2"/>
         <v>1.7700000000000002</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="3"/>
+        <v>2.7194799110210365E-16</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1786,9 +1810,9 @@
         <f t="shared" si="0"/>
         <v>20.016666666666666</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <f t="shared" si="1"/>
-        <v>1.6666666666666906E-2</v>
+        <v>4.0824829046386887E-2</v>
       </c>
       <c r="J5" s="6">
         <v>1.34</v>
@@ -1802,6 +1826,10 @@
       <c r="M5" s="3">
         <f t="shared" si="2"/>
         <v>1.34</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>23</v>
@@ -1836,9 +1864,9 @@
         <f t="shared" si="0"/>
         <v>17.016666666666666</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <f t="shared" si="1"/>
-        <v>1.6666666666666906E-2</v>
+        <v>4.0824829046386887E-2</v>
       </c>
       <c r="J6" s="6">
         <v>0.97</v>
@@ -1852,6 +1880,10 @@
       <c r="M6" s="3">
         <f t="shared" si="2"/>
         <v>0.97000000000000008</v>
+      </c>
+      <c r="N6" s="2">
+        <f>_xlfn.STDEV.S(J6:L6)</f>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>24</v>
@@ -1886,9 +1918,9 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <f t="shared" si="1"/>
-        <v>2.5819888974716022E-2</v>
+        <v>6.3245553203367361E-2</v>
       </c>
       <c r="J7" s="6">
         <v>0.66</v>
@@ -1902,6 +1934,10 @@
       <c r="M7" s="3">
         <f t="shared" si="2"/>
         <v>0.66</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1930,7 +1966,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1946,6 +1982,10 @@
       <c r="M8" s="3">
         <f t="shared" si="2"/>
         <v>0.40000000000000008</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="3"/>
+        <v>6.7986997775525911E-17</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1974,9 +2014,9 @@
         <f t="shared" si="0"/>
         <v>7.9833333333333334</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <f t="shared" si="1"/>
-        <v>1.6666666666666611E-2</v>
+        <v>4.0824829046386159E-2</v>
       </c>
       <c r="J9" s="6">
         <v>0.21</v>
@@ -1990,6 +2030,10 @@
       <c r="M9" s="3">
         <f t="shared" si="2"/>
         <v>0.21</v>
+      </c>
+      <c r="N9" s="2">
+        <f>_xlfn.STDEV.S(J9:L9)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -2018,7 +2062,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2034,6 +2078,10 @@
       <c r="M10" s="3">
         <f t="shared" si="2"/>
         <v>0.08</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -2062,7 +2110,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2078,6 +2126,10 @@
       <c r="M11" s="3">
         <f t="shared" si="2"/>
         <v>0.02</v>
+      </c>
+      <c r="N11" s="9">
+        <f>_xlfn.STDEV.S(J11:L11)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -2106,7 +2158,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2120,6 +2172,7 @@
         <v>27</v>
       </c>
       <c r="M12" s="3"/>
+      <c r="N12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2132,7 +2185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A541D4-8B0E-48D8-9A1A-4668EF171BE1}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -2153,34 +2206,34 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -2189,22 +2242,22 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>34.85</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>35.75</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>35.49</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>35.81</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>36.380000000000003</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>33.81</v>
       </c>
       <c r="H2" s="1">
@@ -2214,32 +2267,32 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>28.01</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>29.13</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>28.46</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>30.18</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>29.59</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>30.1</v>
       </c>
       <c r="H3" s="1">
@@ -2255,22 +2308,22 @@
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>25.98</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>25.449000000000002</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>26.152999999999999</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>26.201000000000001</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>25.856999999999999</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>25.474</v>
       </c>
       <c r="H4" s="1">
@@ -2280,7 +2333,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N4" s="1">
         <v>1E-3</v>
@@ -2290,22 +2343,22 @@
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>20.640999999999998</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>23.695</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>23.552</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>23.972000000000001</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>24.100999999999999</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>23.863</v>
       </c>
       <c r="H5" s="1">
@@ -2317,22 +2370,22 @@
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>21.285</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>18.411999999999999</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>20.992000000000001</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>19.792000000000002</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>19.581</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>21.376999999999999</v>
       </c>
       <c r="H6" s="1">
@@ -2344,22 +2397,22 @@
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>17.390999999999998</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>18.727</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>17.283999999999999</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>17.977</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>18.760999999999999</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>18.878</v>
       </c>
       <c r="H7" s="1">
@@ -2371,22 +2424,22 @@
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>15.342000000000001</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>14.275</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>15.288</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>13.599</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>15.577</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>15.621</v>
       </c>
       <c r="H8" s="1">
@@ -2398,22 +2451,22 @@
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>10.125999999999999</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>10.455</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>11.01</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>10.852</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>10.349</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>11.065</v>
       </c>
       <c r="H9" s="1">
@@ -2425,22 +2478,22 @@
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>7.6029999999999998</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>7.4160000000000004</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>7.13</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>7.3310000000000004</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>7.7569999999999997</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>7.9729999999999999</v>
       </c>
       <c r="H10" s="1">
@@ -2452,22 +2505,22 @@
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>3.0910000000000002</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>3.14</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>3.403</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>3.2909999999999999</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>2.952</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>2.8260000000000001</v>
       </c>
       <c r="H11" s="1">
@@ -2479,12 +2532,12 @@
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
